--- a/Kandela/invoice.xlsx
+++ b/Kandela/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\Kandela\Kandela Invoices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python Projects\Kandela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D491C2B-5009-4F37-8143-3C62573A9E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0DF9AA-CC50-433B-BAD1-3B993B3F68EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,24 +38,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
+    <t xml:space="preserve">KANDELA LTD </t>
+  </si>
+  <si>
     <t>INVOICE</t>
   </si>
   <si>
+    <t>Company No: 15802841</t>
+  </si>
+  <si>
+    <t>Flat 1 31 Long Acre, London, England, WC2E 9LA</t>
+  </si>
+  <si>
     <t>DATE:</t>
   </si>
   <si>
+    <t>mervegultekin@kandelapsikoloji.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">INVOICE </t>
   </si>
   <si>
+    <t>Inv-035</t>
+  </si>
+  <si>
     <t>Bill To:</t>
   </si>
   <si>
+    <t>SIBEL DEMIR</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
     <t>AMOUNT</t>
   </si>
   <si>
+    <t>Counseling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Payable within 7 days </t>
   </si>
   <si>
@@ -63,56 +92,28 @@
     <t>Make all payments payable to:</t>
   </si>
   <si>
+    <t>Sort Code: 04-00-03</t>
+  </si>
+  <si>
+    <t>A/C No: 99432177</t>
+  </si>
+  <si>
+    <t>Account Name: Kandela Ltd</t>
+  </si>
+  <si>
     <t>If you have any questions concerning this invoice, contact us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KANDELA LTD </t>
-  </si>
-  <si>
-    <t>Flat 1 31 Long Acre, London, England, WC2E 9LA</t>
-  </si>
-  <si>
-    <t>Company No: 15802841</t>
-  </si>
-  <si>
-    <t>Counseling</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>mervegultekin@kandelapsikoloji.com</t>
-  </si>
-  <si>
-    <t>Account Name: Kandela Ltd</t>
-  </si>
-  <si>
-    <t>Sort Code: 04-00-03</t>
-  </si>
-  <si>
-    <t>A/C No: 99432177</t>
-  </si>
-  <si>
-    <t>YAKUP AKTAM</t>
-  </si>
-  <si>
-    <t>Inv-162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="@\ \ "/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\ mmmm\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$TRY]\ * #,##0.00_-;\-[$TRY]\ * #,##0.00_-;_-[$TRY]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="@\ \ "/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_-[$TRY]\ * #,##0.00_-;\-[$TRY]\ * #,##0.00_-;_-[$TRY]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -356,7 +357,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -377,19 +378,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,9 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -439,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -451,8 +449,11 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,87 +471,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="8639174"/>
-          <a:ext cx="6648450" cy="234315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>THANK YOU FOR THE BUSINESS!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,7 +861,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -950,43 +870,44 @@
     <col min="2" max="2" width="13.1328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.86328125" style="4" customWidth="1"/>
     <col min="4" max="4" width="22.1328125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="4"/>
+    <col min="5" max="5" width="9.1328125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="32" t="s">
-        <v>10</v>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="D1" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>12</v>
+      <c r="D1" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>11</v>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="30">
-        <v>45572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="29">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
@@ -994,70 +915,70 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="D7" s="29" t="s">
-        <v>21</v>
+      <c r="D7" s="28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
+      <c r="A9" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:7" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="34">
-        <v>1800</v>
-      </c>
-      <c r="C15" s="33">
-        <v>1</v>
-      </c>
-      <c r="D15" s="34">
-        <f>B15*C15</f>
-        <v>1800</v>
+      <c r="B15" s="33">
+        <f>D15/C15</f>
+        <v>1000</v>
+      </c>
+      <c r="C15" s="32">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33">
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -1152,44 +1073,44 @@
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="24">
+        <v>16</v>
+      </c>
+      <c r="D31" s="34">
         <f>SUM(D15:D30)</f>
-        <v>1800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
-        <v>8</v>
+      <c r="A33" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
-        <v>17</v>
+      <c r="A37" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1198,23 +1119,20 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{6E5F951E-A592-4CE9-8174-CB5614985DD6}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId2"/>
-  <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="14" max="3" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="45" man="1"/>
   </colBreaks>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>